--- a/data/trans_bre/P27D_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P27D_R-Urba-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +538,44 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,20 +604,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,22</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>3,02</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22,44%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>2,37%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>42,29%</t>
         </is>
@@ -609,20 +642,30 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,42; 5,32</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>-2,81; 3,57</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>-0,09; 5,72</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-15,38; 88,58</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>-25,96; 45,47</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>-1,63; 101,46</t>
         </is>
@@ -641,20 +684,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>6,79</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>5,69</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21,08%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>126,12%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>110,39%</t>
         </is>
@@ -669,20 +722,30 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-2,17; 7,32</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>0,99; 12,69</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>1,08; 10,85</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-24,74; 118,57</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>-2,31; 336,69</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>12,9; 327,97</t>
         </is>
@@ -701,20 +764,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20,53%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -729,20 +802,30 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-6,52; 10,47</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-59,24; 269,62</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -761,20 +844,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>1,73</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>3,66</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21,68%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>20,84%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>54,91%</t>
         </is>
@@ -789,20 +882,30 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-0,69; 4,39</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>-1,1; 4,47</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>1,12; 6,24</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; 65,68</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>-12,8; 62,18</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>11,97; 117,22</t>
         </is>
@@ -817,10 +920,10 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/trans_bre/P27D_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P27D_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,02</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>22,44%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>42,29%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.563431667789379</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2178318432336179</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.089822152355159</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1986610897751764</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.02366185730842294</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.4330988278050409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 5,32</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,81; 3,57</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 5,72</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-15,38; 88,58</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-25,96; 45,47</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 101,46</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.611774985874405</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.810564640749804</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.07107922119089161</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1707054402429735</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2596225724885936</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.02438733100025603</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.171395364293677</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.571354817784298</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.826801600783461</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.8552036004228182</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.454738356973046</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.032848474131394</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,79</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,69</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>21,08%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>126,12%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>110,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 7,32</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 12,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,08; 10,85</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-24,74; 118,57</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 336,69</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>12,9; 327,97</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.778263562200622</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.78839784665701</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.671232306673657</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.2458727648718174</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.261243255834782</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.104610748881898</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>20,53%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.847007768942839</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.9934659465760075</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.098231385152921</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.215540828789991</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.02309265062279368</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.1316851467415578</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,52; 10,47</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-59,24; 269,62</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.557540807371219</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.68589897462301</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.8144261452711</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.200776071361433</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>3.36686946373385</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.285665945772615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +775,137 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,66</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>21,68%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>20,84%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>54,91%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>2.011727416486832</v>
+      </c>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="6" t="n">
+        <v>0.2532109430708819</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 4,39</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 4,47</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 6,24</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-9,17; 65,68</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-12,8; 62,18</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>11,97; 117,22</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.214468569097995</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="6" t="n">
+        <v>-0.5927654491051302</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.32971181561108</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="6" t="n">
+        <v>2.822053188770833</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.706704150648807</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.72734368979864</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.705376100189542</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.2238907939852145</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.2083646262375269</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.5574728384414961</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.7789375065138198</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.101480784246347</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.136854109604276</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.09020715804990284</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1280350250842011</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.1210072009654442</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.268719795309081</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.47442569401707</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.279580279343009</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.6419385356374075</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.6217979987447431</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.182652090188387</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -921,12 +914,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
